--- a/data/outputs/management/40.xlsx
+++ b/data/outputs/management/40.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ105"/>
+  <dimension ref="A1:BR105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -909,6 +914,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1110,6 +1116,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1315,6 +1322,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1528,6 +1536,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1745,6 +1754,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1946,6 +1956,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2143,6 +2154,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2344,6 +2356,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2561,6 +2574,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>4606604</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2774,6 +2792,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2967,6 +2986,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3172,6 +3192,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3385,6 +3406,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3598,6 +3620,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3799,6 +3822,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4000,6 +4024,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4193,6 +4218,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4394,6 +4420,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>4012827</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4595,6 +4626,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4792,6 +4824,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4989,6 +5022,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>5961643</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5198,6 +5236,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5411,6 +5450,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>4736051</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5616,6 +5660,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5825,6 +5870,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>4002674</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6034,6 +6084,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6247,6 +6298,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6452,6 +6504,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>5065350</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6653,6 +6710,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6862,6 +6920,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7075,6 +7134,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7284,6 +7344,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7485,6 +7546,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7686,6 +7748,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7887,6 +7950,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8100,6 +8164,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>21509119</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8301,6 +8370,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8514,6 +8584,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8719,6 +8790,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8924,6 +8996,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9129,6 +9202,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9318,6 +9392,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9531,6 +9606,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9740,6 +9816,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9941,6 +10018,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10154,6 +10232,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10351,6 +10430,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10560,6 +10640,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10769,6 +10850,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10982,6 +11064,11 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr">
+        <is>
+          <t>3901099</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11187,6 +11274,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11396,6 +11484,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11601,6 +11690,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>3745734</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11810,6 +11904,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12015,6 +12110,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>3745442</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12224,6 +12324,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12433,6 +12534,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12642,6 +12744,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12847,6 +12950,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13048,6 +13152,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13249,6 +13354,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13454,6 +13560,11 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr">
+        <is>
+          <t>3854748</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13655,6 +13766,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13852,6 +13964,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14049,6 +14162,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14258,6 +14372,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14459,6 +14574,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14660,6 +14776,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14861,6 +14978,11 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr">
+        <is>
+          <t>2896261</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15062,6 +15184,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15259,6 +15382,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15460,6 +15584,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15665,6 +15790,11 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr">
+        <is>
+          <t>46540412</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15870,6 +16000,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16071,6 +16202,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16272,6 +16404,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16469,6 +16602,11 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr">
+        <is>
+          <t>2904380</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16674,6 +16812,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -16875,6 +17014,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17084,6 +17224,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17293,6 +17434,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17490,6 +17632,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17691,6 +17834,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -17896,6 +18040,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18109,6 +18254,11 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr">
+        <is>
+          <t>2790630</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18310,6 +18460,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18515,6 +18666,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18724,6 +18876,11 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr">
+        <is>
+          <t>3070582</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -18921,6 +19078,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19122,6 +19280,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19319,6 +19478,11 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr">
+        <is>
+          <t>2955950</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19520,6 +19684,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19729,6 +19894,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -19926,6 +20092,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20127,6 +20294,11 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr">
+        <is>
+          <t>3037161</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20328,6 +20500,11 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr">
+        <is>
+          <t>3076095</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20533,6 +20710,11 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr">
+        <is>
+          <t>2999375</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -20734,6 +20916,11 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr">
+        <is>
+          <t>3101092</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -20935,6 +21122,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21148,6 +21336,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21353,6 +21542,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21562,6 +21752,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -21763,6 +21954,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -21968,6 +22160,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
